--- a/ALI(2).xlsx
+++ b/ALI(2).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,9 +688,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>30</v>
       </c>
@@ -708,6 +705,30 @@
       <c r="H11" t="inlineStr">
         <is>
           <t>2025-07-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
